--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -1,50 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shendian\Desktop\python课程\金融分析项目\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E369870-FB63-4C17-9048-7E6E50500F49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19050" windowHeight="10065"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Open</t>
+    <t>OPEN</t>
   </si>
   <si>
-    <t>High</t>
+    <t>HIGH</t>
   </si>
   <si>
-    <t>Low</t>
+    <t>LOW</t>
   </si>
   <si>
-    <t>Close</t>
+    <t>CLOSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -52,349 +54,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -417,251 +96,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -672,58 +109,19 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -770,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,9 +201,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,6 +253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1008,24 +440,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.0666666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,24 +471,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43706</v>
       </c>
       <c r="B2">
-        <v>7.1634</v>
+        <v>7.1634000000000002</v>
       </c>
       <c r="C2">
         <v>7.1711</v>
       </c>
       <c r="D2">
-        <v>7.1409</v>
+        <v>7.1409000000000002</v>
       </c>
       <c r="E2">
-        <v>7.1514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7.1513999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43707</v>
       </c>
@@ -1064,118 +496,118 @@
         <v>7.15</v>
       </c>
       <c r="C3">
-        <v>7.1585</v>
+        <v>7.1585000000000001</v>
       </c>
       <c r="D3">
-        <v>7.1382</v>
+        <v>7.1382000000000003</v>
       </c>
       <c r="E3">
         <v>7.1452</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43710</v>
       </c>
       <c r="B4">
-        <v>7.162</v>
+        <v>7.1619999999999999</v>
       </c>
       <c r="C4">
-        <v>7.1737</v>
+        <v>7.1737000000000002</v>
       </c>
       <c r="D4">
-        <v>7.1577</v>
+        <v>7.1577000000000002</v>
       </c>
       <c r="E4">
-        <v>7.1716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>7.1715999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43711</v>
       </c>
       <c r="B5">
-        <v>7.182</v>
+        <v>7.1820000000000004</v>
       </c>
       <c r="C5">
-        <v>7.1854</v>
+        <v>7.1853999999999996</v>
       </c>
       <c r="D5">
-        <v>7.174</v>
+        <v>7.1740000000000004</v>
       </c>
       <c r="E5">
-        <v>7.1785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>7.1784999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43712</v>
       </c>
       <c r="B6">
-        <v>7.1695</v>
+        <v>7.1695000000000002</v>
       </c>
       <c r="C6">
         <v>7.1715</v>
       </c>
       <c r="D6">
-        <v>7.145</v>
+        <v>7.1449999999999996</v>
       </c>
       <c r="E6">
-        <v>7.1538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>7.1538000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43713</v>
       </c>
       <c r="B7">
-        <v>7.122</v>
+        <v>7.1219999999999999</v>
       </c>
       <c r="C7">
         <v>7.1555</v>
       </c>
       <c r="D7">
-        <v>7.122</v>
+        <v>7.1219999999999999</v>
       </c>
       <c r="E7">
-        <v>7.1459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>7.1459000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43714</v>
       </c>
       <c r="B8">
-        <v>7.1455</v>
+        <v>7.1455000000000002</v>
       </c>
       <c r="C8">
         <v>7.1555</v>
       </c>
       <c r="D8">
-        <v>7.1097</v>
+        <v>7.1097000000000001</v>
       </c>
       <c r="E8">
-        <v>7.1243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>7.1242999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43717</v>
       </c>
       <c r="B9">
-        <v>7.1204</v>
+        <v>7.1204000000000001</v>
       </c>
       <c r="C9">
-        <v>7.1351</v>
+        <v>7.1351000000000004</v>
       </c>
       <c r="D9">
-        <v>7.1191</v>
+        <v>7.1191000000000004</v>
       </c>
       <c r="E9">
-        <v>7.1286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>7.1285999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43718</v>
       </c>
@@ -1183,16 +615,16 @@
         <v>7.11</v>
       </c>
       <c r="C10">
-        <v>7.1209</v>
+        <v>7.1208999999999998</v>
       </c>
       <c r="D10">
-        <v>7.098</v>
+        <v>7.0979999999999999</v>
       </c>
       <c r="E10">
-        <v>7.1042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>7.1041999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43719</v>
       </c>
@@ -1200,84 +632,84 @@
         <v>7.117</v>
       </c>
       <c r="C11">
-        <v>7.1245</v>
+        <v>7.1245000000000003</v>
       </c>
       <c r="D11">
         <v>7.1071</v>
       </c>
       <c r="E11">
-        <v>7.1179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>7.1178999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43720</v>
       </c>
       <c r="B12">
-        <v>7.0942</v>
+        <v>7.0941999999999998</v>
       </c>
       <c r="C12">
-        <v>7.1127</v>
+        <v>7.1127000000000002</v>
       </c>
       <c r="D12">
-        <v>7.066</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="E12">
-        <v>7.0882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>7.0881999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43724</v>
       </c>
       <c r="B13">
-        <v>7.065</v>
+        <v>7.0650000000000004</v>
       </c>
       <c r="C13">
-        <v>7.0775</v>
+        <v>7.0774999999999997</v>
       </c>
       <c r="D13">
-        <v>7.0624</v>
+        <v>7.0624000000000002</v>
       </c>
       <c r="E13">
-        <v>7.064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>7.0640000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43725</v>
       </c>
       <c r="B14">
-        <v>7.0769</v>
+        <v>7.0769000000000002</v>
       </c>
       <c r="C14">
         <v>7.0972</v>
       </c>
       <c r="D14">
-        <v>7.0735</v>
+        <v>7.0735000000000001</v>
       </c>
       <c r="E14">
-        <v>7.0929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>7.0929000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43726</v>
       </c>
       <c r="B15">
-        <v>7.0898</v>
+        <v>7.0898000000000003</v>
       </c>
       <c r="C15">
-        <v>7.0918</v>
+        <v>7.0918000000000001</v>
       </c>
       <c r="D15">
-        <v>7.084</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="E15">
-        <v>7.0879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>7.0879000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43727</v>
       </c>
@@ -1285,92 +717,92 @@
         <v>7.0911</v>
       </c>
       <c r="C16">
-        <v>7.1088</v>
+        <v>7.1087999999999996</v>
       </c>
       <c r="D16">
-        <v>7.0902</v>
+        <v>7.0902000000000003</v>
       </c>
       <c r="E16">
         <v>7.0987</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43728</v>
       </c>
       <c r="B17">
-        <v>7.096</v>
+        <v>7.0960000000000001</v>
       </c>
       <c r="C17">
-        <v>7.0978</v>
+        <v>7.0978000000000003</v>
       </c>
       <c r="D17">
-        <v>7.0819</v>
+        <v>7.0819000000000001</v>
       </c>
       <c r="E17">
-        <v>7.0901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>7.0900999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43731</v>
       </c>
       <c r="B18">
-        <v>7.104</v>
+        <v>7.1040000000000001</v>
       </c>
       <c r="C18">
-        <v>7.1289</v>
+        <v>7.1288999999999998</v>
       </c>
       <c r="D18">
-        <v>7.1037</v>
+        <v>7.1036999999999999</v>
       </c>
       <c r="E18">
-        <v>7.126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>7.1260000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43732</v>
       </c>
       <c r="B19">
-        <v>7.119</v>
+        <v>7.1189999999999998</v>
       </c>
       <c r="C19">
-        <v>7.1216</v>
+        <v>7.1215999999999999</v>
       </c>
       <c r="D19">
-        <v>7.102</v>
+        <v>7.1020000000000003</v>
       </c>
       <c r="E19">
-        <v>7.1075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>7.1074999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43733</v>
       </c>
       <c r="B20">
-        <v>7.1125</v>
+        <v>7.1124999999999998</v>
       </c>
       <c r="C20">
         <v>7.1349</v>
       </c>
       <c r="D20">
-        <v>7.108</v>
+        <v>7.1079999999999997</v>
       </c>
       <c r="E20">
-        <v>7.1238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>7.1238000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43734</v>
       </c>
       <c r="B21">
-        <v>7.1283</v>
+        <v>7.1283000000000003</v>
       </c>
       <c r="C21">
-        <v>7.1358</v>
+        <v>7.1357999999999997</v>
       </c>
       <c r="D21">
         <v>7.1227</v>
@@ -1379,7 +811,7 @@
         <v>7.1315</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43735</v>
       </c>
@@ -1387,33 +819,33 @@
         <v>7.1311</v>
       </c>
       <c r="C22">
-        <v>7.1384</v>
+        <v>7.1383999999999999</v>
       </c>
       <c r="D22">
-        <v>7.119</v>
+        <v>7.1189999999999998</v>
       </c>
       <c r="E22">
-        <v>7.1195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>7.1195000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43738</v>
       </c>
       <c r="B23">
-        <v>7.1289</v>
+        <v>7.1288999999999998</v>
       </c>
       <c r="C23">
-        <v>7.148</v>
+        <v>7.1479999999999997</v>
       </c>
       <c r="D23">
-        <v>7.118</v>
+        <v>7.1180000000000003</v>
       </c>
       <c r="E23">
-        <v>7.1381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>7.1380999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43746</v>
       </c>
@@ -1421,41 +853,41 @@
         <v>7.133</v>
       </c>
       <c r="C24">
-        <v>7.1489</v>
+        <v>7.1489000000000003</v>
       </c>
       <c r="D24">
-        <v>7.1203</v>
+        <v>7.1203000000000003</v>
       </c>
       <c r="E24">
-        <v>7.1295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>7.1295000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43747</v>
       </c>
       <c r="B25">
-        <v>7.1531</v>
+        <v>7.1531000000000002</v>
       </c>
       <c r="C25">
-        <v>7.1533</v>
+        <v>7.1532999999999998</v>
       </c>
       <c r="D25">
-        <v>7.118</v>
+        <v>7.1180000000000003</v>
       </c>
       <c r="E25">
-        <v>7.1327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>7.1326999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43748</v>
       </c>
       <c r="B26">
-        <v>7.128</v>
+        <v>7.1280000000000001</v>
       </c>
       <c r="C26">
-        <v>7.128</v>
+        <v>7.1280000000000001</v>
       </c>
       <c r="D26">
         <v>7.1</v>
@@ -1464,24 +896,24 @@
         <v>7.1246</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43749</v>
       </c>
       <c r="B27">
-        <v>7.0931</v>
+        <v>7.0930999999999997</v>
       </c>
       <c r="C27">
-        <v>7.1106</v>
+        <v>7.1105999999999998</v>
       </c>
       <c r="D27">
-        <v>7.087</v>
+        <v>7.0869999999999997</v>
       </c>
       <c r="E27">
         <v>7.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43752</v>
       </c>
@@ -1489,123 +921,123 @@
         <v>7.085</v>
       </c>
       <c r="C28">
-        <v>7.0876</v>
+        <v>7.0876000000000001</v>
       </c>
       <c r="D28">
-        <v>7.0494</v>
+        <v>7.0494000000000003</v>
       </c>
       <c r="E28">
-        <v>7.0669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>7.0669000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43753</v>
       </c>
       <c r="B29">
-        <v>7.0675</v>
+        <v>7.0674999999999999</v>
       </c>
       <c r="C29">
-        <v>7.0836</v>
+        <v>7.0835999999999997</v>
       </c>
       <c r="D29">
-        <v>7.0615</v>
+        <v>7.0614999999999997</v>
       </c>
       <c r="E29">
-        <v>7.0778</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>7.0777999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43754</v>
       </c>
       <c r="B30">
-        <v>7.095</v>
+        <v>7.0949999999999998</v>
       </c>
       <c r="C30">
-        <v>7.1038</v>
+        <v>7.1037999999999997</v>
       </c>
       <c r="D30">
-        <v>7.0902</v>
+        <v>7.0902000000000003</v>
       </c>
       <c r="E30">
-        <v>7.103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>7.1029999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43755</v>
       </c>
       <c r="B31">
-        <v>7.0975</v>
+        <v>7.0975000000000001</v>
       </c>
       <c r="C31">
-        <v>7.1016</v>
+        <v>7.1016000000000004</v>
       </c>
       <c r="D31">
-        <v>7.067</v>
+        <v>7.0670000000000002</v>
       </c>
       <c r="E31">
-        <v>7.0841</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>7.0841000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43756</v>
       </c>
       <c r="B32">
-        <v>7.072</v>
+        <v>7.0720000000000001</v>
       </c>
       <c r="C32">
-        <v>7.0873</v>
+        <v>7.0872999999999999</v>
       </c>
       <c r="D32">
-        <v>7.0666</v>
+        <v>7.0666000000000002</v>
       </c>
       <c r="E32">
-        <v>7.0825</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>7.0824999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43759</v>
       </c>
       <c r="B33">
-        <v>7.068</v>
+        <v>7.0679999999999996</v>
       </c>
       <c r="C33">
         <v>7.077</v>
       </c>
       <c r="D33">
-        <v>7.0655</v>
+        <v>7.0655000000000001</v>
       </c>
       <c r="E33">
-        <v>7.0678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>7.0678000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43760</v>
       </c>
       <c r="B34">
-        <v>7.073</v>
+        <v>7.0730000000000004</v>
       </c>
       <c r="C34">
-        <v>7.0837</v>
+        <v>7.0837000000000003</v>
       </c>
       <c r="D34">
         <v>7.0705</v>
       </c>
       <c r="E34">
-        <v>7.0817</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>7.0816999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43761</v>
       </c>
       <c r="B35">
-        <v>7.0825</v>
+        <v>7.0824999999999996</v>
       </c>
       <c r="C35">
         <v>7.093</v>
@@ -1614,61 +1046,61 @@
         <v>7.0667</v>
       </c>
       <c r="E35">
-        <v>7.0745</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>7.0744999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43762</v>
       </c>
       <c r="B36">
-        <v>7.0664</v>
+        <v>7.0663999999999998</v>
       </c>
       <c r="C36">
-        <v>7.0737</v>
+        <v>7.0736999999999997</v>
       </c>
       <c r="D36">
         <v>7.056</v>
       </c>
       <c r="E36">
-        <v>7.0702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>7.0701999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43763</v>
       </c>
       <c r="B37">
-        <v>7.0733</v>
+        <v>7.0732999999999997</v>
       </c>
       <c r="C37">
         <v>7.0766</v>
       </c>
       <c r="D37">
-        <v>7.0636</v>
+        <v>7.0636000000000001</v>
       </c>
       <c r="E37">
-        <v>7.0716</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>7.0716000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43766</v>
       </c>
       <c r="B38">
-        <v>7.0542</v>
+        <v>7.0541999999999998</v>
       </c>
       <c r="C38">
-        <v>7.0699</v>
+        <v>7.0698999999999996</v>
       </c>
       <c r="D38">
-        <v>7.0523</v>
+        <v>7.0522999999999998</v>
       </c>
       <c r="E38">
-        <v>7.0615</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>7.0614999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43767</v>
       </c>
@@ -1676,118 +1108,118 @@
         <v>7.06</v>
       </c>
       <c r="C39">
-        <v>7.0666</v>
+        <v>7.0666000000000002</v>
       </c>
       <c r="D39">
-        <v>7.053</v>
+        <v>7.0529999999999999</v>
       </c>
       <c r="E39">
-        <v>7.0637</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>7.0636999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43768</v>
       </c>
       <c r="B40">
-        <v>7.064</v>
+        <v>7.0640000000000001</v>
       </c>
       <c r="C40">
-        <v>7.0678</v>
+        <v>7.0678000000000001</v>
       </c>
       <c r="D40">
-        <v>7.0542</v>
+        <v>7.0541999999999998</v>
       </c>
       <c r="E40">
-        <v>7.0584</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>7.0583999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43769</v>
       </c>
       <c r="B41">
-        <v>7.045</v>
+        <v>7.0449999999999999</v>
       </c>
       <c r="C41">
-        <v>7.0498</v>
+        <v>7.0498000000000003</v>
       </c>
       <c r="D41">
-        <v>7.031</v>
+        <v>7.0309999999999997</v>
       </c>
       <c r="E41">
-        <v>7.035</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>7.0350000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43770</v>
       </c>
       <c r="B42">
-        <v>7.0495</v>
+        <v>7.0495000000000001</v>
       </c>
       <c r="C42">
-        <v>7.0497</v>
+        <v>7.0496999999999996</v>
       </c>
       <c r="D42">
         <v>7.0366</v>
       </c>
       <c r="E42">
-        <v>7.0376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>7.0376000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43773</v>
       </c>
       <c r="B43">
-        <v>7.033</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="C43">
-        <v>7.035</v>
+        <v>7.0350000000000001</v>
       </c>
       <c r="D43">
-        <v>7.0229</v>
+        <v>7.0228999999999999</v>
       </c>
       <c r="E43">
-        <v>7.0302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>7.0301999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43774</v>
       </c>
       <c r="B44">
-        <v>7.0275</v>
+        <v>7.0274999999999999</v>
       </c>
       <c r="C44">
-        <v>7.0322</v>
+        <v>7.0321999999999996</v>
       </c>
       <c r="D44">
-        <v>6.988</v>
+        <v>6.9880000000000004</v>
       </c>
       <c r="E44">
-        <v>6.9975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>6.9974999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43775</v>
       </c>
       <c r="B45">
-        <v>6.9953</v>
+        <v>6.9953000000000003</v>
       </c>
       <c r="C45">
-        <v>7.0051</v>
+        <v>7.0050999999999997</v>
       </c>
       <c r="D45">
-        <v>6.9908</v>
+        <v>6.9908000000000001</v>
       </c>
       <c r="E45">
-        <v>6.9987</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>6.9987000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43776</v>
       </c>
@@ -1798,81 +1230,81 @@
         <v>7.02</v>
       </c>
       <c r="D46">
-        <v>6.9711</v>
+        <v>6.9710999999999999</v>
       </c>
       <c r="E46">
-        <v>6.988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>6.9880000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43777</v>
       </c>
       <c r="B47">
-        <v>6.9704</v>
+        <v>6.9703999999999997</v>
       </c>
       <c r="C47">
-        <v>6.999</v>
+        <v>6.9989999999999997</v>
       </c>
       <c r="D47">
-        <v>6.965</v>
+        <v>6.9649999999999999</v>
       </c>
       <c r="E47">
-        <v>6.9884</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>6.9884000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43780</v>
       </c>
       <c r="B48">
-        <v>6.9965</v>
+        <v>6.9965000000000002</v>
       </c>
       <c r="C48">
-        <v>7.0125</v>
+        <v>7.0125000000000002</v>
       </c>
       <c r="D48">
-        <v>6.9922</v>
+        <v>6.9922000000000004</v>
       </c>
       <c r="E48">
         <v>7.0065</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43781</v>
       </c>
       <c r="B49">
-        <v>7.005</v>
+        <v>7.0049999999999999</v>
       </c>
       <c r="C49">
-        <v>7.009</v>
+        <v>7.0090000000000003</v>
       </c>
       <c r="D49">
-        <v>6.9959</v>
+        <v>6.9958999999999998</v>
       </c>
       <c r="E49">
-        <v>7.0028</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>7.0027999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43782</v>
       </c>
       <c r="B50">
-        <v>7.0238</v>
+        <v>7.0237999999999996</v>
       </c>
       <c r="C50">
-        <v>7.027</v>
+        <v>7.0270000000000001</v>
       </c>
       <c r="D50">
-        <v>7.0126</v>
+        <v>7.0125999999999999</v>
       </c>
       <c r="E50">
         <v>7.016</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43783</v>
       </c>
@@ -1880,126 +1312,126 @@
         <v>7.024</v>
       </c>
       <c r="C51">
-        <v>7.0252</v>
+        <v>7.0251999999999999</v>
       </c>
       <c r="D51">
         <v>7.0141</v>
       </c>
       <c r="E51">
-        <v>7.0204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>7.0204000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43784</v>
       </c>
       <c r="B52">
-        <v>7.004</v>
+        <v>7.0039999999999996</v>
       </c>
       <c r="C52">
         <v>7.0164</v>
       </c>
       <c r="D52">
-        <v>6.9982</v>
+        <v>6.9981999999999998</v>
       </c>
       <c r="E52">
-        <v>7.0121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>7.0121000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43787</v>
       </c>
       <c r="B53">
-        <v>7.015</v>
+        <v>7.0149999999999997</v>
       </c>
       <c r="C53">
-        <v>7.028</v>
+        <v>7.0279999999999996</v>
       </c>
       <c r="D53">
-        <v>7.0104</v>
+        <v>7.0103999999999997</v>
       </c>
       <c r="E53">
         <v>7.0122</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43788</v>
       </c>
       <c r="B54">
-        <v>7.0288</v>
+        <v>7.0288000000000004</v>
       </c>
       <c r="C54">
-        <v>7.0295</v>
+        <v>7.0294999999999996</v>
       </c>
       <c r="D54">
-        <v>7.0222</v>
+        <v>7.0221999999999998</v>
       </c>
       <c r="E54">
-        <v>7.0238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>7.0237999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43789</v>
       </c>
       <c r="B55">
-        <v>7.033</v>
+        <v>7.0330000000000004</v>
       </c>
       <c r="C55">
-        <v>7.0383</v>
+        <v>7.0382999999999996</v>
       </c>
       <c r="D55">
-        <v>7.0273</v>
+        <v>7.0273000000000003</v>
       </c>
       <c r="E55">
-        <v>7.0369</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>7.0369000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43790</v>
       </c>
       <c r="B56">
-        <v>7.0448</v>
+        <v>7.0448000000000004</v>
       </c>
       <c r="C56">
-        <v>7.045</v>
+        <v>7.0449999999999999</v>
       </c>
       <c r="D56">
-        <v>7.0249</v>
+        <v>7.0248999999999997</v>
       </c>
       <c r="E56">
-        <v>7.0374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>7.0373999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43791</v>
       </c>
       <c r="B57">
-        <v>7.0271</v>
+        <v>7.0270999999999999</v>
       </c>
       <c r="C57">
-        <v>7.042</v>
+        <v>7.0419999999999998</v>
       </c>
       <c r="D57">
-        <v>7.0187</v>
+        <v>7.0186999999999999</v>
       </c>
       <c r="E57">
-        <v>7.0356</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>7.0355999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43794</v>
       </c>
       <c r="B58">
-        <v>7.035</v>
+        <v>7.0350000000000001</v>
       </c>
       <c r="C58">
-        <v>7.0388</v>
+        <v>7.0388000000000002</v>
       </c>
       <c r="D58">
         <v>7.03</v>
@@ -2008,75 +1440,75 @@
         <v>7.032</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43795</v>
       </c>
       <c r="B59">
-        <v>7.0268</v>
+        <v>7.0267999999999997</v>
       </c>
       <c r="C59">
-        <v>7.042</v>
+        <v>7.0419999999999998</v>
       </c>
       <c r="D59">
         <v>7.024</v>
       </c>
       <c r="E59">
-        <v>7.0363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>7.0362999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43796</v>
       </c>
       <c r="B60">
-        <v>7.0236</v>
+        <v>7.0236000000000001</v>
       </c>
       <c r="C60">
-        <v>7.0311</v>
+        <v>7.0311000000000003</v>
       </c>
       <c r="D60">
         <v>7.0206</v>
       </c>
       <c r="E60">
-        <v>7.026</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>7.0259999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43797</v>
       </c>
       <c r="B61">
-        <v>7.029</v>
+        <v>7.0289999999999999</v>
       </c>
       <c r="C61">
-        <v>7.0359</v>
+        <v>7.0358999999999998</v>
       </c>
       <c r="D61">
-        <v>7.0257</v>
+        <v>7.0256999999999996</v>
       </c>
       <c r="E61">
-        <v>7.0328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>7.0327999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43798</v>
       </c>
       <c r="B62">
-        <v>7.0325</v>
+        <v>7.0324999999999998</v>
       </c>
       <c r="C62">
-        <v>7.0369</v>
+        <v>7.0369000000000002</v>
       </c>
       <c r="D62">
-        <v>7.0181</v>
+        <v>7.0180999999999996</v>
       </c>
       <c r="E62">
-        <v>7.0261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>7.0260999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43801</v>
       </c>
@@ -2084,109 +1516,109 @@
         <v>7.0282</v>
       </c>
       <c r="C63">
-        <v>7.0449</v>
+        <v>7.0449000000000002</v>
       </c>
       <c r="D63">
-        <v>7.026</v>
+        <v>7.0259999999999998</v>
       </c>
       <c r="E63">
-        <v>7.0449</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>7.0449000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43802</v>
       </c>
       <c r="B64">
-        <v>7.042</v>
+        <v>7.0419999999999998</v>
       </c>
       <c r="C64">
-        <v>7.065</v>
+        <v>7.0650000000000004</v>
       </c>
       <c r="D64">
-        <v>7.037</v>
+        <v>7.0369999999999999</v>
       </c>
       <c r="E64">
-        <v>7.0471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>7.0471000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43803</v>
       </c>
       <c r="B65">
-        <v>7.0706</v>
+        <v>7.0705999999999998</v>
       </c>
       <c r="C65">
-        <v>7.075</v>
+        <v>7.0750000000000002</v>
       </c>
       <c r="D65">
-        <v>7.0482</v>
+        <v>7.0481999999999996</v>
       </c>
       <c r="E65">
-        <v>7.0699</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>7.0698999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43804</v>
       </c>
       <c r="B66">
-        <v>7.0511</v>
+        <v>7.0510999999999999</v>
       </c>
       <c r="C66">
         <v>7.0568</v>
       </c>
       <c r="D66">
-        <v>7.038</v>
+        <v>7.0380000000000003</v>
       </c>
       <c r="E66">
-        <v>7.0425</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>7.0425000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43805</v>
       </c>
       <c r="B67">
-        <v>7.0432</v>
+        <v>7.0431999999999997</v>
       </c>
       <c r="C67">
-        <v>7.0515</v>
+        <v>7.0514999999999999</v>
       </c>
       <c r="D67">
-        <v>7.028</v>
+        <v>7.0279999999999996</v>
       </c>
       <c r="E67">
-        <v>7.034</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>7.0339999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43808</v>
       </c>
       <c r="B68">
-        <v>7.0335</v>
+        <v>7.0335000000000001</v>
       </c>
       <c r="C68">
-        <v>7.0438</v>
+        <v>7.0438000000000001</v>
       </c>
       <c r="D68">
-        <v>7.0303</v>
+        <v>7.0303000000000004</v>
       </c>
       <c r="E68">
-        <v>7.0403</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>7.0403000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43809</v>
       </c>
       <c r="B69">
-        <v>7.0421</v>
+        <v>7.0420999999999996</v>
       </c>
       <c r="C69">
-        <v>7.0421</v>
+        <v>7.0420999999999996</v>
       </c>
       <c r="D69">
         <v>7.03</v>
@@ -2195,41 +1627,41 @@
         <v>7.0385</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43810</v>
       </c>
       <c r="B70">
-        <v>7.0379</v>
+        <v>7.0378999999999996</v>
       </c>
       <c r="C70">
-        <v>7.0408</v>
+        <v>7.0407999999999999</v>
       </c>
       <c r="D70">
-        <v>7.0348</v>
+        <v>7.0347999999999997</v>
       </c>
       <c r="E70">
-        <v>7.0386</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>7.0385999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43811</v>
       </c>
       <c r="B71">
-        <v>7.0319</v>
+        <v>7.0319000000000003</v>
       </c>
       <c r="C71">
-        <v>7.0378</v>
+        <v>7.0377999999999998</v>
       </c>
       <c r="D71">
         <v>7.0278</v>
       </c>
       <c r="E71">
-        <v>7.0333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>7.0332999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43812</v>
       </c>
@@ -2237,186 +1669,186 @@
         <v>6.96</v>
       </c>
       <c r="C72">
-        <v>7.002</v>
+        <v>7.0019999999999998</v>
       </c>
       <c r="D72">
-        <v>6.957</v>
+        <v>6.9569999999999999</v>
       </c>
       <c r="E72">
-        <v>6.9839</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>6.9839000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43815</v>
       </c>
       <c r="B73">
-        <v>6.998</v>
+        <v>6.9980000000000002</v>
       </c>
       <c r="C73">
-        <v>7.0075</v>
+        <v>7.0075000000000003</v>
       </c>
       <c r="D73">
-        <v>6.9922</v>
+        <v>6.9922000000000004</v>
       </c>
       <c r="E73">
-        <v>7.0027</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>7.0026999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43816</v>
       </c>
       <c r="B74">
-        <v>6.9979</v>
+        <v>6.9978999999999996</v>
       </c>
       <c r="C74">
-        <v>7.003</v>
+        <v>7.0030000000000001</v>
       </c>
       <c r="D74">
-        <v>6.995</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="E74">
-        <v>7.0024</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>7.0023999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43817</v>
       </c>
       <c r="B75">
-        <v>6.999</v>
+        <v>6.9989999999999997</v>
       </c>
       <c r="C75">
         <v>7.0084</v>
       </c>
       <c r="D75">
-        <v>6.9953</v>
+        <v>6.9953000000000003</v>
       </c>
       <c r="E75">
         <v>6.9996</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43818</v>
       </c>
       <c r="B76">
-        <v>7.001</v>
+        <v>7.0010000000000003</v>
       </c>
       <c r="C76">
-        <v>7.0105</v>
+        <v>7.0105000000000004</v>
       </c>
       <c r="D76">
-        <v>6.9965</v>
+        <v>6.9965000000000002</v>
       </c>
       <c r="E76">
-        <v>7.0079</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>7.0079000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43819</v>
       </c>
       <c r="B77">
-        <v>7.0079</v>
+        <v>7.0079000000000002</v>
       </c>
       <c r="C77">
-        <v>7.0165</v>
+        <v>7.0164999999999997</v>
       </c>
       <c r="D77">
-        <v>7.006</v>
+        <v>7.0060000000000002</v>
       </c>
       <c r="E77">
-        <v>7.0115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>7.0114999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43822</v>
       </c>
       <c r="B78">
-        <v>7.0094</v>
+        <v>7.0094000000000003</v>
       </c>
       <c r="C78">
         <v>7.0145</v>
       </c>
       <c r="D78">
-        <v>7.0071</v>
+        <v>7.0071000000000003</v>
       </c>
       <c r="E78">
-        <v>7.0127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>7.0126999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43823</v>
       </c>
       <c r="B79">
-        <v>7.014</v>
+        <v>7.0140000000000002</v>
       </c>
       <c r="C79">
-        <v>7.0146</v>
+        <v>7.0145999999999997</v>
       </c>
       <c r="D79">
-        <v>7.0053</v>
+        <v>7.0053000000000001</v>
       </c>
       <c r="E79">
-        <v>7.0075</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>7.0075000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43824</v>
       </c>
       <c r="B80">
-        <v>7.004</v>
+        <v>7.0039999999999996</v>
       </c>
       <c r="C80">
-        <v>7.005</v>
+        <v>7.0049999999999999</v>
       </c>
       <c r="D80">
-        <v>6.9818</v>
+        <v>6.9817999999999998</v>
       </c>
       <c r="E80">
-        <v>6.9823</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>6.9823000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43825</v>
       </c>
       <c r="B81">
-        <v>6.985</v>
+        <v>6.9850000000000003</v>
       </c>
       <c r="C81">
-        <v>7.0031</v>
+        <v>7.0030999999999999</v>
       </c>
       <c r="D81">
-        <v>6.985</v>
+        <v>6.9850000000000003</v>
       </c>
       <c r="E81">
-        <v>6.9984</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>6.9984000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43826</v>
       </c>
       <c r="B82">
-        <v>6.998</v>
+        <v>6.9980000000000002</v>
       </c>
       <c r="C82">
-        <v>7.002</v>
+        <v>7.0019999999999998</v>
       </c>
       <c r="D82">
-        <v>6.995</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="E82">
-        <v>6.9992</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>6.9992000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43829</v>
       </c>
@@ -2424,296 +1856,296 @@
         <v>6.9935</v>
       </c>
       <c r="C83">
-        <v>6.9954</v>
+        <v>6.9954000000000001</v>
       </c>
       <c r="D83">
-        <v>6.9811</v>
+        <v>6.9810999999999996</v>
       </c>
       <c r="E83">
         <v>6.9878</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43830</v>
       </c>
       <c r="B84">
-        <v>6.983</v>
+        <v>6.9829999999999997</v>
       </c>
       <c r="C84">
-        <v>6.986</v>
+        <v>6.9859999999999998</v>
       </c>
       <c r="D84">
-        <v>6.959</v>
+        <v>6.9589999999999996</v>
       </c>
       <c r="E84">
-        <v>6.9662</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>6.9661999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43832</v>
       </c>
       <c r="B85">
-        <v>6.967</v>
+        <v>6.9669999999999996</v>
       </c>
       <c r="C85">
-        <v>6.975</v>
+        <v>6.9749999999999996</v>
       </c>
       <c r="D85">
-        <v>6.9601</v>
+        <v>6.9600999999999997</v>
       </c>
       <c r="E85">
-        <v>6.9631</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>6.9630999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43833</v>
       </c>
       <c r="B86">
-        <v>6.9649</v>
+        <v>6.9649000000000001</v>
       </c>
       <c r="C86">
-        <v>6.9759</v>
+        <v>6.9759000000000002</v>
       </c>
       <c r="D86">
-        <v>6.9635</v>
+        <v>6.9634999999999998</v>
       </c>
       <c r="E86">
-        <v>6.9716</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>6.9715999999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43836</v>
       </c>
       <c r="B87">
-        <v>6.963</v>
+        <v>6.9630000000000001</v>
       </c>
       <c r="C87">
         <v>6.9794</v>
       </c>
       <c r="D87">
-        <v>6.963</v>
+        <v>6.9630000000000001</v>
       </c>
       <c r="E87">
-        <v>6.9745</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>6.9744999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43837</v>
       </c>
       <c r="B88">
-        <v>6.9708</v>
+        <v>6.9707999999999997</v>
       </c>
       <c r="C88">
-        <v>6.979</v>
+        <v>6.9790000000000001</v>
       </c>
       <c r="D88">
-        <v>6.9315</v>
+        <v>6.9314999999999998</v>
       </c>
       <c r="E88">
-        <v>6.9376</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>6.9375999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43838</v>
       </c>
       <c r="B89">
-        <v>6.9543</v>
+        <v>6.9542999999999999</v>
       </c>
       <c r="C89">
-        <v>6.956</v>
+        <v>6.9560000000000004</v>
       </c>
       <c r="D89">
-        <v>6.9368</v>
+        <v>6.9367999999999999</v>
       </c>
       <c r="E89">
-        <v>6.942</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>6.9420000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43839</v>
       </c>
       <c r="B90">
-        <v>6.9288</v>
+        <v>6.9287999999999998</v>
       </c>
       <c r="C90">
-        <v>6.9355</v>
+        <v>6.9355000000000002</v>
       </c>
       <c r="D90">
-        <v>6.9207</v>
+        <v>6.9207000000000001</v>
       </c>
       <c r="E90">
-        <v>6.9311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>6.9310999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43840</v>
       </c>
       <c r="B91">
-        <v>6.9283</v>
+        <v>6.9283000000000001</v>
       </c>
       <c r="C91">
-        <v>6.9388</v>
+        <v>6.9387999999999996</v>
       </c>
       <c r="D91">
-        <v>6.9191</v>
+        <v>6.9191000000000003</v>
       </c>
       <c r="E91">
-        <v>6.929</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>6.9290000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43843</v>
       </c>
       <c r="B92">
-        <v>6.9101</v>
+        <v>6.9100999999999999</v>
       </c>
       <c r="C92">
-        <v>6.9151</v>
+        <v>6.9150999999999998</v>
       </c>
       <c r="D92">
-        <v>6.8877</v>
+        <v>6.8876999999999997</v>
       </c>
       <c r="E92">
-        <v>6.8942</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>6.8941999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43844</v>
       </c>
       <c r="B93">
-        <v>6.879</v>
+        <v>6.8789999999999996</v>
       </c>
       <c r="C93">
-        <v>6.8902</v>
+        <v>6.8902000000000001</v>
       </c>
       <c r="D93">
-        <v>6.8661</v>
+        <v>6.8661000000000003</v>
       </c>
       <c r="E93">
-        <v>6.8854</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>6.8853999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43845</v>
       </c>
       <c r="B94">
-        <v>6.8947</v>
+        <v>6.8947000000000003</v>
       </c>
       <c r="C94">
-        <v>6.8986</v>
+        <v>6.8986000000000001</v>
       </c>
       <c r="D94">
-        <v>6.8837</v>
+        <v>6.8837000000000002</v>
       </c>
       <c r="E94">
-        <v>6.8871</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>6.8871000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43846</v>
       </c>
       <c r="B95">
-        <v>6.885</v>
+        <v>6.8849999999999998</v>
       </c>
       <c r="C95">
-        <v>6.893</v>
+        <v>6.8929999999999998</v>
       </c>
       <c r="D95">
-        <v>6.8743</v>
+        <v>6.8742999999999999</v>
       </c>
       <c r="E95">
-        <v>6.885</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>6.8849999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43847</v>
       </c>
       <c r="B96">
-        <v>6.878</v>
+        <v>6.8780000000000001</v>
       </c>
       <c r="C96">
         <v>6.88</v>
       </c>
       <c r="D96">
-        <v>6.8527</v>
+        <v>6.8526999999999996</v>
       </c>
       <c r="E96">
-        <v>6.8585</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>6.8585000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>43850</v>
       </c>
       <c r="B97">
-        <v>6.8589</v>
+        <v>6.8589000000000002</v>
       </c>
       <c r="C97">
-        <v>6.8658</v>
+        <v>6.8658000000000001</v>
       </c>
       <c r="D97">
-        <v>6.8398</v>
+        <v>6.8398000000000003</v>
       </c>
       <c r="E97">
         <v>6.8613</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>43851</v>
       </c>
       <c r="B98">
-        <v>6.8823</v>
+        <v>6.8822999999999999</v>
       </c>
       <c r="C98">
-        <v>6.9094</v>
+        <v>6.9093999999999998</v>
       </c>
       <c r="D98">
-        <v>6.8779</v>
+        <v>6.8779000000000003</v>
       </c>
       <c r="E98">
-        <v>6.9065</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>6.9065000000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>43852</v>
       </c>
       <c r="B99">
-        <v>6.9115</v>
+        <v>6.9115000000000002</v>
       </c>
       <c r="C99">
-        <v>6.918</v>
+        <v>6.9180000000000001</v>
       </c>
       <c r="D99">
-        <v>6.895</v>
+        <v>6.8949999999999996</v>
       </c>
       <c r="E99">
-        <v>6.9012</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>6.9012000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>43853</v>
       </c>
       <c r="B100">
-        <v>6.912</v>
+        <v>6.9119999999999999</v>
       </c>
       <c r="C100">
-        <v>6.9368</v>
+        <v>6.9367999999999999</v>
       </c>
       <c r="D100">
         <v>6.91</v>
@@ -2722,7 +2154,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>43864</v>
       </c>
@@ -2730,21 +2162,21 @@
         <v>6.99</v>
       </c>
       <c r="C101">
-        <v>7.0268</v>
+        <v>7.0267999999999997</v>
       </c>
       <c r="D101">
-        <v>6.9874</v>
+        <v>6.9874000000000001</v>
       </c>
       <c r="E101">
-        <v>7.0257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>7.0256999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>43865</v>
       </c>
       <c r="B102">
-        <v>7.0153</v>
+        <v>7.0152999999999999</v>
       </c>
       <c r="C102">
         <v>7.02</v>
@@ -2756,41 +2188,41 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>43866</v>
       </c>
       <c r="B103">
-        <v>7.0016</v>
+        <v>7.0015999999999998</v>
       </c>
       <c r="C103">
-        <v>7.0077</v>
+        <v>7.0076999999999998</v>
       </c>
       <c r="D103">
         <v>6.97</v>
       </c>
       <c r="E103">
-        <v>6.9997</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>6.9996999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>43867</v>
       </c>
       <c r="B104">
-        <v>6.972</v>
+        <v>6.9720000000000004</v>
       </c>
       <c r="C104">
-        <v>6.9829</v>
+        <v>6.9828999999999999</v>
       </c>
       <c r="D104">
-        <v>6.9589</v>
+        <v>6.9588999999999999</v>
       </c>
       <c r="E104">
-        <v>6.9696</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>6.9695999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>43868</v>
       </c>
@@ -2798,33 +2230,33 @@
         <v>6.98</v>
       </c>
       <c r="C105">
-        <v>7.0035</v>
+        <v>7.0034999999999998</v>
       </c>
       <c r="D105">
-        <v>6.975</v>
+        <v>6.9749999999999996</v>
       </c>
       <c r="E105">
-        <v>6.986</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>6.9859999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>43871</v>
       </c>
       <c r="B106">
-        <v>7.0014</v>
+        <v>7.0014000000000003</v>
       </c>
       <c r="C106">
-        <v>7.002</v>
+        <v>7.0019999999999998</v>
       </c>
       <c r="D106">
-        <v>6.977</v>
+        <v>6.9770000000000003</v>
       </c>
       <c r="E106">
-        <v>6.9853</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>6.9852999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>43872</v>
       </c>
@@ -2832,203 +2264,203 @@
         <v>6.97</v>
       </c>
       <c r="C107">
-        <v>6.9822</v>
+        <v>6.9821999999999997</v>
       </c>
       <c r="D107">
-        <v>6.965</v>
+        <v>6.9649999999999999</v>
       </c>
       <c r="E107">
         <v>6.9775</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>43873</v>
       </c>
       <c r="B108">
-        <v>6.9686</v>
+        <v>6.9686000000000003</v>
       </c>
       <c r="C108">
-        <v>6.978</v>
+        <v>6.9779999999999998</v>
       </c>
       <c r="D108">
-        <v>6.9586</v>
+        <v>6.9585999999999997</v>
       </c>
       <c r="E108">
-        <v>6.973</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>6.9729999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>43874</v>
       </c>
       <c r="B109">
-        <v>6.979</v>
+        <v>6.9790000000000001</v>
       </c>
       <c r="C109">
-        <v>6.9857</v>
+        <v>6.9856999999999996</v>
       </c>
       <c r="D109">
-        <v>6.9753</v>
+        <v>6.9752999999999998</v>
       </c>
       <c r="E109">
-        <v>6.9805</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>6.9805000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>43875</v>
       </c>
       <c r="B110">
-        <v>6.981</v>
+        <v>6.9809999999999999</v>
       </c>
       <c r="C110">
-        <v>6.9895</v>
+        <v>6.9894999999999996</v>
       </c>
       <c r="D110">
-        <v>6.9789</v>
+        <v>6.9789000000000003</v>
       </c>
       <c r="E110">
-        <v>6.9795</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>6.9794999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>43878</v>
       </c>
       <c r="B111">
-        <v>6.9822</v>
+        <v>6.9821999999999997</v>
       </c>
       <c r="C111">
-        <v>6.9833</v>
+        <v>6.9832999999999998</v>
       </c>
       <c r="D111">
-        <v>6.9719</v>
+        <v>6.9718999999999998</v>
       </c>
       <c r="E111">
-        <v>6.9807</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>6.9806999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>43879</v>
       </c>
       <c r="B112">
-        <v>6.986</v>
+        <v>6.9859999999999998</v>
       </c>
       <c r="C112">
-        <v>7.0077</v>
+        <v>7.0076999999999998</v>
       </c>
       <c r="D112">
-        <v>6.9831</v>
+        <v>6.9831000000000003</v>
       </c>
       <c r="E112">
-        <v>7.0052</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>7.0052000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>43880</v>
       </c>
       <c r="B113">
-        <v>7.0088</v>
+        <v>7.0087999999999999</v>
       </c>
       <c r="C113">
-        <v>7.0136</v>
+        <v>7.0136000000000003</v>
       </c>
       <c r="D113">
-        <v>6.9886</v>
+        <v>6.9885999999999999</v>
       </c>
       <c r="E113">
-        <v>6.9941</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>6.9941000000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>43881</v>
       </c>
       <c r="B114">
-        <v>7.0095</v>
+        <v>7.0095000000000001</v>
       </c>
       <c r="C114">
-        <v>7.0289</v>
+        <v>7.0289000000000001</v>
       </c>
       <c r="D114">
-        <v>7.004</v>
+        <v>7.0039999999999996</v>
       </c>
       <c r="E114">
-        <v>7.0153</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>7.0152999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>43882</v>
       </c>
       <c r="B115">
-        <v>7.0261</v>
+        <v>7.0260999999999996</v>
       </c>
       <c r="C115">
-        <v>7.0434</v>
+        <v>7.0434000000000001</v>
       </c>
       <c r="D115">
-        <v>7.026</v>
+        <v>7.0259999999999998</v>
       </c>
       <c r="E115">
-        <v>7.0386</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>7.0385999999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>43885</v>
       </c>
       <c r="B116">
-        <v>7.043</v>
+        <v>7.0430000000000001</v>
       </c>
       <c r="C116">
-        <v>7.043</v>
+        <v>7.0430000000000001</v>
       </c>
       <c r="D116">
-        <v>7.027</v>
+        <v>7.0270000000000001</v>
       </c>
       <c r="E116">
-        <v>7.0315</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>7.0315000000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>43886</v>
       </c>
       <c r="B117">
-        <v>7.0101</v>
+        <v>7.0101000000000004</v>
       </c>
       <c r="C117">
         <v>7.0198</v>
       </c>
       <c r="D117">
-        <v>7.0087</v>
+        <v>7.0087000000000002</v>
       </c>
       <c r="E117">
-        <v>7.0162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>7.0162000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>43887</v>
       </c>
       <c r="B118">
-        <v>7.025</v>
+        <v>7.0250000000000004</v>
       </c>
       <c r="C118">
-        <v>7.0265</v>
+        <v>7.0265000000000004</v>
       </c>
       <c r="D118">
-        <v>7.0155</v>
+        <v>7.0155000000000003</v>
       </c>
       <c r="E118">
-        <v>7.017</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>7.0170000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>43888</v>
       </c>
@@ -3036,118 +2468,118 @@
         <v>7.016</v>
       </c>
       <c r="C119">
-        <v>7.022</v>
+        <v>7.0220000000000002</v>
       </c>
       <c r="D119">
-        <v>7.0045</v>
+        <v>7.0045000000000002</v>
       </c>
       <c r="E119">
-        <v>7.0161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>7.0160999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>43889</v>
       </c>
       <c r="B120">
-        <v>7.005</v>
+        <v>7.0049999999999999</v>
       </c>
       <c r="C120">
-        <v>7.0126</v>
+        <v>7.0125999999999999</v>
       </c>
       <c r="D120">
-        <v>6.978</v>
+        <v>6.9779999999999998</v>
       </c>
       <c r="E120">
-        <v>6.9896</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>6.9896000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>43892</v>
       </c>
       <c r="B121">
-        <v>6.9761</v>
+        <v>6.9760999999999997</v>
       </c>
       <c r="C121">
-        <v>6.9773</v>
+        <v>6.9772999999999996</v>
       </c>
       <c r="D121">
-        <v>6.953</v>
+        <v>6.9530000000000003</v>
       </c>
       <c r="E121">
-        <v>6.9578</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>6.9577999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>43893</v>
       </c>
       <c r="B122">
-        <v>6.963</v>
+        <v>6.9630000000000001</v>
       </c>
       <c r="C122">
-        <v>6.9842</v>
+        <v>6.9842000000000004</v>
       </c>
       <c r="D122">
         <v>6.96</v>
       </c>
       <c r="E122">
-        <v>6.9808</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>6.9808000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>43894</v>
       </c>
       <c r="B123">
-        <v>6.943</v>
+        <v>6.9429999999999996</v>
       </c>
       <c r="C123">
         <v>6.9516</v>
       </c>
       <c r="D123">
-        <v>6.922</v>
+        <v>6.9219999999999997</v>
       </c>
       <c r="E123">
-        <v>6.9331</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>6.9330999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>43895</v>
       </c>
       <c r="B124">
-        <v>6.942</v>
+        <v>6.9420000000000002</v>
       </c>
       <c r="C124">
-        <v>6.945</v>
+        <v>6.9450000000000003</v>
       </c>
       <c r="D124">
-        <v>6.9331</v>
+        <v>6.9330999999999996</v>
       </c>
       <c r="E124">
-        <v>6.9425</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>6.9424999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>43896</v>
       </c>
       <c r="B125">
-        <v>6.9443</v>
+        <v>6.9443000000000001</v>
       </c>
       <c r="C125">
-        <v>6.9585</v>
+        <v>6.9584999999999999</v>
       </c>
       <c r="D125">
-        <v>6.9248</v>
+        <v>6.9248000000000003</v>
       </c>
       <c r="E125">
         <v>6.94</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>43899</v>
       </c>
@@ -3155,50 +2587,50 @@
         <v>6.91</v>
       </c>
       <c r="C126">
-        <v>6.955</v>
+        <v>6.9550000000000001</v>
       </c>
       <c r="D126">
-        <v>6.909</v>
+        <v>6.9089999999999998</v>
       </c>
       <c r="E126">
-        <v>6.9499</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>6.9499000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>43900</v>
       </c>
       <c r="B127">
-        <v>6.943</v>
+        <v>6.9429999999999996</v>
       </c>
       <c r="C127">
-        <v>6.962</v>
+        <v>6.9619999999999997</v>
       </c>
       <c r="D127">
-        <v>6.9303</v>
+        <v>6.9302999999999999</v>
       </c>
       <c r="E127">
-        <v>6.9469</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>6.9469000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>43901</v>
       </c>
       <c r="B128">
-        <v>6.9655</v>
+        <v>6.9654999999999996</v>
       </c>
       <c r="C128">
-        <v>6.9665</v>
+        <v>6.9664999999999999</v>
       </c>
       <c r="D128">
-        <v>6.9449</v>
+        <v>6.9448999999999996</v>
       </c>
       <c r="E128">
-        <v>6.9499</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>6.9499000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>43902</v>
       </c>
@@ -3206,33 +2638,33 @@
         <v>6.98</v>
       </c>
       <c r="C129">
-        <v>7.0345</v>
+        <v>7.0345000000000004</v>
       </c>
       <c r="D129">
-        <v>6.9682</v>
+        <v>6.9682000000000004</v>
       </c>
       <c r="E129">
         <v>6.984</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>43903</v>
       </c>
       <c r="B130">
-        <v>7.0321</v>
+        <v>7.0320999999999998</v>
       </c>
       <c r="C130">
-        <v>7.035</v>
+        <v>7.0350000000000001</v>
       </c>
       <c r="D130">
-        <v>6.9765</v>
+        <v>6.9764999999999997</v>
       </c>
       <c r="E130">
-        <v>6.9926</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>6.9926000000000004</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>43906</v>
       </c>
@@ -3240,50 +2672,50 @@
         <v>7</v>
       </c>
       <c r="C131">
-        <v>7.0249</v>
+        <v>7.0248999999999997</v>
       </c>
       <c r="D131">
-        <v>6.991</v>
+        <v>6.9909999999999997</v>
       </c>
       <c r="E131">
-        <v>6.9974</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>6.9973999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>43907</v>
       </c>
       <c r="B132">
-        <v>6.993</v>
+        <v>6.9930000000000003</v>
       </c>
       <c r="C132">
-        <v>7.0235</v>
+        <v>7.0235000000000003</v>
       </c>
       <c r="D132">
-        <v>6.985</v>
+        <v>6.9850000000000003</v>
       </c>
       <c r="E132">
-        <v>7.0096</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>7.0095999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>43908</v>
       </c>
       <c r="B133">
-        <v>7.023</v>
+        <v>7.0229999999999997</v>
       </c>
       <c r="C133">
-        <v>7.049</v>
+        <v>7.0490000000000004</v>
       </c>
       <c r="D133">
-        <v>7.005</v>
+        <v>7.0049999999999999</v>
       </c>
       <c r="E133">
-        <v>7.026</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>7.0259999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>43909</v>
       </c>
@@ -3291,16 +2723,16 @@
         <v>7.05</v>
       </c>
       <c r="C134">
-        <v>7.1238</v>
+        <v>7.1238000000000001</v>
       </c>
       <c r="D134">
         <v>7.05</v>
       </c>
       <c r="E134">
-        <v>7.091</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>7.0910000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>43910</v>
       </c>
@@ -3308,67 +2740,67 @@
         <v>7.1</v>
       </c>
       <c r="C135">
-        <v>7.115</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="D135">
-        <v>7.0499</v>
+        <v>7.0499000000000001</v>
       </c>
       <c r="E135">
-        <v>7.0661</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>7.0660999999999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>43913</v>
       </c>
       <c r="B136">
-        <v>7.095</v>
+        <v>7.0949999999999998</v>
       </c>
       <c r="C136">
-        <v>7.1225</v>
+        <v>7.1224999999999996</v>
       </c>
       <c r="D136">
-        <v>7.083</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="E136">
-        <v>7.1187</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>7.1186999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>43914</v>
       </c>
       <c r="B137">
-        <v>7.0806</v>
+        <v>7.0805999999999996</v>
       </c>
       <c r="C137">
-        <v>7.0922</v>
+        <v>7.0922000000000001</v>
       </c>
       <c r="D137">
-        <v>7.057</v>
+        <v>7.0570000000000004</v>
       </c>
       <c r="E137">
-        <v>7.0769</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>7.0769000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>43915</v>
       </c>
       <c r="B138">
-        <v>7.0605</v>
+        <v>7.0605000000000002</v>
       </c>
       <c r="C138">
-        <v>7.1163</v>
+        <v>7.1162999999999998</v>
       </c>
       <c r="D138">
-        <v>7.0491</v>
+        <v>7.0491000000000001</v>
       </c>
       <c r="E138">
-        <v>7.1009</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>7.1009000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>43916</v>
       </c>
@@ -3376,84 +2808,84 @@
         <v>7.0911</v>
       </c>
       <c r="C139">
-        <v>7.1233</v>
+        <v>7.1233000000000004</v>
       </c>
       <c r="D139">
         <v>7.07</v>
       </c>
       <c r="E139">
-        <v>7.096</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>7.0960000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>43917</v>
       </c>
       <c r="B140">
-        <v>7.059</v>
+        <v>7.0590000000000002</v>
       </c>
       <c r="C140">
-        <v>7.097</v>
+        <v>7.0970000000000004</v>
       </c>
       <c r="D140">
-        <v>7.0569</v>
+        <v>7.0568999999999997</v>
       </c>
       <c r="E140">
-        <v>7.0928</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>7.0928000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>43920</v>
       </c>
       <c r="B141">
-        <v>7.096</v>
+        <v>7.0960000000000001</v>
       </c>
       <c r="C141">
-        <v>7.1066</v>
+        <v>7.1066000000000003</v>
       </c>
       <c r="D141">
-        <v>7.087</v>
+        <v>7.0869999999999997</v>
       </c>
       <c r="E141">
-        <v>7.097</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>7.0970000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>43921</v>
       </c>
       <c r="B142">
-        <v>7.097</v>
+        <v>7.0970000000000004</v>
       </c>
       <c r="C142">
-        <v>7.1011</v>
+        <v>7.1010999999999997</v>
       </c>
       <c r="D142">
-        <v>7.0805</v>
+        <v>7.0804999999999998</v>
       </c>
       <c r="E142">
-        <v>7.0931</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>7.0930999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>43922</v>
       </c>
       <c r="B143">
-        <v>7.083</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="C143">
-        <v>7.1081</v>
+        <v>7.1081000000000003</v>
       </c>
       <c r="D143">
-        <v>7.0792</v>
+        <v>7.0792000000000002</v>
       </c>
       <c r="E143">
-        <v>7.1058</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>7.1058000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>43923</v>
       </c>
@@ -3461,16 +2893,16 @@
         <v>7.11</v>
       </c>
       <c r="C144">
-        <v>7.1283</v>
+        <v>7.1283000000000003</v>
       </c>
       <c r="D144">
-        <v>7.0821</v>
+        <v>7.0820999999999996</v>
       </c>
       <c r="E144">
-        <v>7.0977</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>7.0976999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>43924</v>
       </c>
@@ -3478,50 +2910,50 @@
         <v>7.093</v>
       </c>
       <c r="C145">
-        <v>7.0999</v>
+        <v>7.0998999999999999</v>
       </c>
       <c r="D145">
-        <v>7.0814</v>
+        <v>7.0814000000000004</v>
       </c>
       <c r="E145">
         <v>7.0903</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>43928</v>
       </c>
       <c r="B146">
-        <v>7.0889</v>
+        <v>7.0888999999999998</v>
       </c>
       <c r="C146">
-        <v>7.089</v>
+        <v>7.0890000000000004</v>
       </c>
       <c r="D146">
-        <v>7.0445</v>
+        <v>7.0445000000000002</v>
       </c>
       <c r="E146">
-        <v>7.055</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>7.0549999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>43929</v>
       </c>
       <c r="B147">
-        <v>7.062</v>
+        <v>7.0620000000000003</v>
       </c>
       <c r="C147">
-        <v>7.074</v>
+        <v>7.0739999999999998</v>
       </c>
       <c r="D147">
-        <v>7.0579</v>
+        <v>7.0579000000000001</v>
       </c>
       <c r="E147">
         <v>7.0682</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>43930</v>
       </c>
@@ -3529,16 +2961,16 @@
         <v>7.0648</v>
       </c>
       <c r="C148">
-        <v>7.0753</v>
+        <v>7.0753000000000004</v>
       </c>
       <c r="D148">
-        <v>7.0375</v>
+        <v>7.0374999999999996</v>
       </c>
       <c r="E148">
-        <v>7.059</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>7.0590000000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>43931</v>
       </c>
@@ -3549,18 +2981,18 @@
         <v>7.05</v>
       </c>
       <c r="D149">
-        <v>7.0275</v>
+        <v>7.0274999999999999</v>
       </c>
       <c r="E149">
-        <v>7.0359</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>7.0358999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>43934</v>
       </c>
       <c r="B150">
-        <v>7.0445</v>
+        <v>7.0445000000000002</v>
       </c>
       <c r="C150">
         <v>7.0568</v>
@@ -3569,95 +3001,95 @@
         <v>7.04</v>
       </c>
       <c r="E150">
-        <v>7.0489</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>7.0488999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>43935</v>
       </c>
       <c r="B151">
-        <v>7.0482</v>
+        <v>7.0481999999999996</v>
       </c>
       <c r="C151">
-        <v>7.0632</v>
+        <v>7.0632000000000001</v>
       </c>
       <c r="D151">
         <v>7.04</v>
       </c>
       <c r="E151">
-        <v>7.0605</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>7.0605000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>43936</v>
       </c>
       <c r="B152">
-        <v>7.0499</v>
+        <v>7.0499000000000001</v>
       </c>
       <c r="C152">
-        <v>7.0688</v>
+        <v>7.0688000000000004</v>
       </c>
       <c r="D152">
-        <v>7.045</v>
+        <v>7.0449999999999999</v>
       </c>
       <c r="E152">
-        <v>7.0617</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>7.0617000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>43937</v>
       </c>
       <c r="B153">
-        <v>7.073</v>
+        <v>7.0730000000000004</v>
       </c>
       <c r="C153">
-        <v>7.084</v>
+        <v>7.0839999999999996</v>
       </c>
       <c r="D153">
-        <v>7.0691</v>
+        <v>7.0690999999999997</v>
       </c>
       <c r="E153">
-        <v>7.0745</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>7.0744999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>43938</v>
       </c>
       <c r="B154">
-        <v>7.0673</v>
+        <v>7.0673000000000004</v>
       </c>
       <c r="C154">
-        <v>7.0764</v>
+        <v>7.0763999999999996</v>
       </c>
       <c r="D154">
-        <v>7.065</v>
+        <v>7.0650000000000004</v>
       </c>
       <c r="E154">
-        <v>7.0764</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>7.0763999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>43941</v>
       </c>
       <c r="B155">
-        <v>7.0782</v>
+        <v>7.0781999999999998</v>
       </c>
       <c r="C155">
-        <v>7.0828</v>
+        <v>7.0827999999999998</v>
       </c>
       <c r="D155">
-        <v>7.0679</v>
+        <v>7.0678999999999998</v>
       </c>
       <c r="E155">
-        <v>7.0755</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>7.0754999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>43942</v>
       </c>
@@ -3665,33 +3097,33 @@
         <v>7.08</v>
       </c>
       <c r="C156">
-        <v>7.0982</v>
+        <v>7.0982000000000003</v>
       </c>
       <c r="D156">
         <v>7.08</v>
       </c>
       <c r="E156">
-        <v>7.0876</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>7.0876000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>43943</v>
       </c>
       <c r="B157">
-        <v>7.0912</v>
+        <v>7.0911999999999997</v>
       </c>
       <c r="C157">
-        <v>7.0915</v>
+        <v>7.0914999999999999</v>
       </c>
       <c r="D157">
-        <v>7.0778</v>
+        <v>7.0777999999999999</v>
       </c>
       <c r="E157">
-        <v>7.0842</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>7.0842000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>43944</v>
       </c>
@@ -3702,171 +3134,171 @@
         <v>7.0869</v>
       </c>
       <c r="D158">
-        <v>7.0651</v>
+        <v>7.0651000000000002</v>
       </c>
       <c r="E158">
-        <v>7.0791</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>7.0791000000000004</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>43945</v>
       </c>
       <c r="B159">
-        <v>7.0801</v>
+        <v>7.0800999999999998</v>
       </c>
       <c r="C159">
-        <v>7.0876</v>
+        <v>7.0876000000000001</v>
       </c>
       <c r="D159">
-        <v>7.0758</v>
+        <v>7.0758000000000001</v>
       </c>
       <c r="E159">
-        <v>7.0829</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>7.0829000000000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>43948</v>
       </c>
       <c r="B160">
-        <v>7.0706</v>
+        <v>7.0705999999999998</v>
       </c>
       <c r="C160">
         <v>7.0888</v>
       </c>
       <c r="D160">
-        <v>7.0701</v>
+        <v>7.0701000000000001</v>
       </c>
       <c r="E160">
-        <v>7.0836</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>7.0835999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>43949</v>
       </c>
       <c r="B161">
-        <v>7.083</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="C161">
-        <v>7.0906</v>
+        <v>7.0906000000000002</v>
       </c>
       <c r="D161">
-        <v>7.0745</v>
+        <v>7.0744999999999996</v>
       </c>
       <c r="E161">
-        <v>7.0855</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>7.0854999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>43950</v>
       </c>
       <c r="B162">
-        <v>7.0755</v>
+        <v>7.0754999999999999</v>
       </c>
       <c r="C162">
-        <v>7.0812</v>
+        <v>7.0811999999999999</v>
       </c>
       <c r="D162">
-        <v>7.0707</v>
+        <v>7.0707000000000004</v>
       </c>
       <c r="E162">
-        <v>7.0748</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>7.0747999999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>43951</v>
       </c>
       <c r="B163">
-        <v>7.0657</v>
+        <v>7.0656999999999996</v>
       </c>
       <c r="C163">
-        <v>7.0675</v>
+        <v>7.0674999999999999</v>
       </c>
       <c r="D163">
-        <v>7.047</v>
+        <v>7.0469999999999997</v>
       </c>
       <c r="E163">
-        <v>7.0519</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>7.0518999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>43957</v>
       </c>
       <c r="B164">
-        <v>7.103</v>
+        <v>7.1029999999999998</v>
       </c>
       <c r="C164">
-        <v>7.106</v>
+        <v>7.1059999999999999</v>
       </c>
       <c r="D164">
-        <v>7.0864</v>
+        <v>7.0864000000000003</v>
       </c>
       <c r="E164">
-        <v>7.0959</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>7.0959000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>43958</v>
       </c>
       <c r="B165">
-        <v>7.1038</v>
+        <v>7.1037999999999997</v>
       </c>
       <c r="C165">
-        <v>7.1087</v>
+        <v>7.1086999999999998</v>
       </c>
       <c r="D165">
-        <v>7.0847</v>
+        <v>7.0846999999999998</v>
       </c>
       <c r="E165">
-        <v>7.0913</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>7.0913000000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>43959</v>
       </c>
       <c r="B166">
-        <v>7.0733</v>
+        <v>7.0732999999999997</v>
       </c>
       <c r="C166">
-        <v>7.0807</v>
+        <v>7.0807000000000002</v>
       </c>
       <c r="D166">
-        <v>7.0694</v>
+        <v>7.0693999999999999</v>
       </c>
       <c r="E166">
-        <v>7.0792</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>7.0792000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>43962</v>
       </c>
       <c r="B167">
-        <v>7.075</v>
+        <v>7.0750000000000002</v>
       </c>
       <c r="C167">
-        <v>7.0988</v>
+        <v>7.0987999999999998</v>
       </c>
       <c r="D167">
-        <v>7.0711</v>
+        <v>7.0711000000000004</v>
       </c>
       <c r="E167">
-        <v>7.0864</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>7.0864000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>43963</v>
       </c>
       <c r="B168">
-        <v>7.0943</v>
+        <v>7.0942999999999996</v>
       </c>
       <c r="C168">
         <v>7.1</v>
@@ -3875,27 +3307,27 @@
         <v>7.08</v>
       </c>
       <c r="E168">
-        <v>7.0886</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>7.0885999999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>43964</v>
       </c>
       <c r="B169">
-        <v>7.091</v>
+        <v>7.0910000000000002</v>
       </c>
       <c r="C169">
-        <v>7.0966</v>
+        <v>7.0965999999999996</v>
       </c>
       <c r="D169">
-        <v>7.083</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="E169">
-        <v>7.0937</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>7.0937000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>43965</v>
       </c>
@@ -3903,67 +3335,67 @@
         <v>7.0968</v>
       </c>
       <c r="C170">
-        <v>7.1036</v>
+        <v>7.1036000000000001</v>
       </c>
       <c r="D170">
-        <v>7.0924</v>
+        <v>7.0923999999999996</v>
       </c>
       <c r="E170">
-        <v>7.0948</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>7.0948000000000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>43966</v>
       </c>
       <c r="B171">
-        <v>7.0995</v>
+        <v>7.0994999999999999</v>
       </c>
       <c r="C171">
-        <v>7.1112</v>
+        <v>7.1112000000000002</v>
       </c>
       <c r="D171">
-        <v>7.0944</v>
+        <v>7.0944000000000003</v>
       </c>
       <c r="E171">
-        <v>7.0995</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>7.0994999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>43969</v>
       </c>
       <c r="B172">
-        <v>7.1045</v>
+        <v>7.1044999999999998</v>
       </c>
       <c r="C172">
-        <v>7.1198</v>
+        <v>7.1197999999999997</v>
       </c>
       <c r="D172">
-        <v>7.1015</v>
+        <v>7.1014999999999997</v>
       </c>
       <c r="E172">
-        <v>7.1133</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>7.1132999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>43970</v>
       </c>
       <c r="B173">
-        <v>7.1031</v>
+        <v>7.1031000000000004</v>
       </c>
       <c r="C173">
-        <v>7.1139</v>
+        <v>7.1139000000000001</v>
       </c>
       <c r="D173">
         <v>7.0991</v>
       </c>
       <c r="E173">
-        <v>7.1069</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>7.1069000000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>43971</v>
       </c>
@@ -3980,7 +3412,7 @@
         <v>7.1067</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>43972</v>
       </c>
@@ -3991,47 +3423,47 @@
         <v>7.1166</v>
       </c>
       <c r="D175">
-        <v>7.0955</v>
+        <v>7.0955000000000004</v>
       </c>
       <c r="E175">
-        <v>7.0998</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>7.0998000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>43973</v>
       </c>
       <c r="B176">
-        <v>7.115</v>
+        <v>7.1150000000000002</v>
       </c>
       <c r="C176">
-        <v>7.1446</v>
+        <v>7.1445999999999996</v>
       </c>
       <c r="D176">
         <v>7.1132</v>
       </c>
       <c r="E176">
-        <v>7.1416</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>7.1416000000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>43976</v>
       </c>
       <c r="B177">
-        <v>7.1335</v>
+        <v>7.1334999999999997</v>
       </c>
       <c r="C177">
         <v>7.1433</v>
       </c>
       <c r="D177">
-        <v>7.1335</v>
+        <v>7.1334999999999997</v>
       </c>
       <c r="E177">
-        <v>7.1388</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>7.1387999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>43977</v>
       </c>
@@ -4039,101 +3471,101 @@
         <v>7.133</v>
       </c>
       <c r="C178">
-        <v>7.1388</v>
+        <v>7.1387999999999998</v>
       </c>
       <c r="D178">
-        <v>7.126</v>
+        <v>7.1260000000000003</v>
       </c>
       <c r="E178">
-        <v>7.1354</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>7.1353999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>43978</v>
       </c>
       <c r="B179">
-        <v>7.135</v>
+        <v>7.1349999999999998</v>
       </c>
       <c r="C179">
-        <v>7.1765</v>
+        <v>7.1764999999999999</v>
       </c>
       <c r="D179">
         <v>7.133</v>
       </c>
       <c r="E179">
-        <v>7.1547</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>7.1547000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>43979</v>
       </c>
       <c r="B180">
-        <v>7.163</v>
+        <v>7.1630000000000003</v>
       </c>
       <c r="C180">
-        <v>7.1687</v>
+        <v>7.1687000000000003</v>
       </c>
       <c r="D180">
-        <v>7.1443</v>
+        <v>7.1443000000000003</v>
       </c>
       <c r="E180">
         <v>7.16</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>43980</v>
       </c>
       <c r="B181">
-        <v>7.156</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="C181">
-        <v>7.1584</v>
+        <v>7.1584000000000003</v>
       </c>
       <c r="D181">
-        <v>7.1348</v>
+        <v>7.1348000000000003</v>
       </c>
       <c r="E181">
-        <v>7.1455</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>7.1455000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>43983</v>
       </c>
       <c r="B182">
-        <v>7.118</v>
+        <v>7.1180000000000003</v>
       </c>
       <c r="C182">
-        <v>7.1399</v>
+        <v>7.1398999999999999</v>
       </c>
       <c r="D182">
         <v>7.11</v>
       </c>
       <c r="E182">
-        <v>7.134</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>7.1340000000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>43984</v>
       </c>
       <c r="B183">
-        <v>7.116</v>
+        <v>7.1159999999999997</v>
       </c>
       <c r="C183">
-        <v>7.1238</v>
+        <v>7.1238000000000001</v>
       </c>
       <c r="D183">
-        <v>7.0999</v>
+        <v>7.0998999999999999</v>
       </c>
       <c r="E183">
         <v>7.1105</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>43985</v>
       </c>
@@ -4141,50 +3573,50 @@
         <v>7.09</v>
       </c>
       <c r="C184">
-        <v>7.1281</v>
+        <v>7.1280999999999999</v>
       </c>
       <c r="D184">
-        <v>7.0899</v>
+        <v>7.0899000000000001</v>
       </c>
       <c r="E184">
-        <v>7.1099</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>7.1098999999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>43986</v>
       </c>
       <c r="B185">
-        <v>7.118</v>
+        <v>7.1180000000000003</v>
       </c>
       <c r="C185">
         <v>7.1315</v>
       </c>
       <c r="D185">
-        <v>7.1072</v>
+        <v>7.1071999999999997</v>
       </c>
       <c r="E185">
-        <v>7.1223</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>7.1223000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>43987</v>
       </c>
       <c r="B186">
-        <v>7.1054</v>
+        <v>7.1054000000000004</v>
       </c>
       <c r="C186">
-        <v>7.1154</v>
+        <v>7.1154000000000002</v>
       </c>
       <c r="D186">
-        <v>7.0799</v>
+        <v>7.0799000000000003</v>
       </c>
       <c r="E186">
-        <v>7.0866</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>7.0865999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>43990</v>
       </c>
@@ -4192,118 +3624,118 @@
         <v>7.085</v>
       </c>
       <c r="C187">
-        <v>7.0913</v>
+        <v>7.0913000000000004</v>
       </c>
       <c r="D187">
-        <v>7.0683</v>
+        <v>7.0682999999999998</v>
       </c>
       <c r="E187">
-        <v>7.0745</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>7.0744999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>43991</v>
       </c>
       <c r="B188">
-        <v>7.0712</v>
+        <v>7.0712000000000002</v>
       </c>
       <c r="C188">
-        <v>7.0915</v>
+        <v>7.0914999999999999</v>
       </c>
       <c r="D188">
-        <v>7.0702</v>
+        <v>7.0701999999999998</v>
       </c>
       <c r="E188">
-        <v>7.0882</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>7.0881999999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>43992</v>
       </c>
       <c r="B189">
-        <v>7.081</v>
+        <v>7.0810000000000004</v>
       </c>
       <c r="C189">
-        <v>7.0849</v>
+        <v>7.0849000000000002</v>
       </c>
       <c r="D189">
-        <v>7.0578</v>
+        <v>7.0578000000000003</v>
       </c>
       <c r="E189">
-        <v>7.067</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>7.0670000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>43993</v>
       </c>
       <c r="B190">
-        <v>7.0588</v>
+        <v>7.0587999999999997</v>
       </c>
       <c r="C190">
-        <v>7.076</v>
+        <v>7.0759999999999996</v>
       </c>
       <c r="D190">
-        <v>7.0555</v>
+        <v>7.0555000000000003</v>
       </c>
       <c r="E190">
-        <v>7.0698</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>7.0697999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>43994</v>
       </c>
       <c r="B191">
-        <v>7.0838</v>
+        <v>7.0838000000000001</v>
       </c>
       <c r="C191">
-        <v>7.0899</v>
+        <v>7.0899000000000001</v>
       </c>
       <c r="D191">
-        <v>7.0711</v>
+        <v>7.0711000000000004</v>
       </c>
       <c r="E191">
-        <v>7.0745</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>7.0744999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>43997</v>
       </c>
       <c r="B192">
-        <v>7.0873</v>
+        <v>7.0872999999999999</v>
       </c>
       <c r="C192">
-        <v>7.0986</v>
+        <v>7.0986000000000002</v>
       </c>
       <c r="D192">
-        <v>7.0853</v>
+        <v>7.0853000000000002</v>
       </c>
       <c r="E192">
-        <v>7.0946</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>7.0945999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>43998</v>
       </c>
       <c r="B193">
-        <v>7.073</v>
+        <v>7.0730000000000004</v>
       </c>
       <c r="C193">
-        <v>7.0899</v>
+        <v>7.0899000000000001</v>
       </c>
       <c r="D193">
-        <v>7.0632</v>
+        <v>7.0632000000000001</v>
       </c>
       <c r="E193">
-        <v>7.0818</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>7.0818000000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>43999</v>
       </c>
@@ -4314,13 +3746,13 @@
         <v>7.0968</v>
       </c>
       <c r="D194">
-        <v>7.0833</v>
+        <v>7.0833000000000004</v>
       </c>
       <c r="E194">
-        <v>7.0859</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>7.0858999999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>44000</v>
       </c>
@@ -4328,67 +3760,67 @@
         <v>7.09</v>
       </c>
       <c r="C195">
-        <v>7.0942</v>
+        <v>7.0941999999999998</v>
       </c>
       <c r="D195">
-        <v>7.0711</v>
+        <v>7.0711000000000004</v>
       </c>
       <c r="E195">
-        <v>7.0812</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>7.0811999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>44001</v>
       </c>
       <c r="B196">
-        <v>7.088</v>
+        <v>7.0880000000000001</v>
       </c>
       <c r="C196">
-        <v>7.0918</v>
+        <v>7.0918000000000001</v>
       </c>
       <c r="D196">
         <v>7.07</v>
       </c>
       <c r="E196">
-        <v>7.078</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>7.0780000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>44004</v>
       </c>
       <c r="B197">
-        <v>7.0809</v>
+        <v>7.0808999999999997</v>
       </c>
       <c r="C197">
-        <v>7.0817</v>
+        <v>7.0816999999999997</v>
       </c>
       <c r="D197">
-        <v>7.0666</v>
+        <v>7.0666000000000002</v>
       </c>
       <c r="E197">
         <v>7.077</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>44005</v>
       </c>
       <c r="B198">
-        <v>7.072</v>
+        <v>7.0720000000000001</v>
       </c>
       <c r="C198">
-        <v>7.0891</v>
+        <v>7.0891000000000002</v>
       </c>
       <c r="D198">
-        <v>7.0575</v>
+        <v>7.0575000000000001</v>
       </c>
       <c r="E198">
-        <v>7.065</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>7.0650000000000004</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>44006</v>
       </c>
@@ -4396,84 +3828,84 @@
         <v>7.0545</v>
       </c>
       <c r="C199">
-        <v>7.079</v>
+        <v>7.0789999999999997</v>
       </c>
       <c r="D199">
-        <v>7.0509</v>
+        <v>7.0509000000000004</v>
       </c>
       <c r="E199">
-        <v>7.0744</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>7.0743999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>44011</v>
       </c>
       <c r="B200">
-        <v>7.082</v>
+        <v>7.0819999999999999</v>
       </c>
       <c r="C200">
-        <v>7.083</v>
+        <v>7.0830000000000002</v>
       </c>
       <c r="D200">
-        <v>7.0742</v>
+        <v>7.0742000000000003</v>
       </c>
       <c r="E200">
-        <v>7.0776</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>7.0776000000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>44012</v>
       </c>
       <c r="B201">
-        <v>7.0703</v>
+        <v>7.0702999999999996</v>
       </c>
       <c r="C201">
-        <v>7.079</v>
+        <v>7.0789999999999997</v>
       </c>
       <c r="D201">
-        <v>7.064</v>
+        <v>7.0640000000000001</v>
       </c>
       <c r="E201">
-        <v>7.0741</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>7.0740999999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>44013</v>
       </c>
       <c r="B202">
-        <v>7.0679</v>
+        <v>7.0678999999999998</v>
       </c>
       <c r="C202">
         <v>7.0728</v>
       </c>
       <c r="D202">
-        <v>7.0571</v>
+        <v>7.0571000000000002</v>
       </c>
       <c r="E202">
-        <v>7.0611</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>7.0610999999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>44014</v>
       </c>
       <c r="B203">
-        <v>7.066</v>
+        <v>7.0659999999999998</v>
       </c>
       <c r="C203">
-        <v>7.0717</v>
+        <v>7.0716999999999999</v>
       </c>
       <c r="D203">
-        <v>7.0623</v>
+        <v>7.0622999999999996</v>
       </c>
       <c r="E203">
         <v>7.0663</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>44015</v>
       </c>
@@ -4481,424 +3913,424 @@
         <v>7.07</v>
       </c>
       <c r="C204">
-        <v>7.0701</v>
+        <v>7.0701000000000001</v>
       </c>
       <c r="D204">
-        <v>7.0599</v>
+        <v>7.0598999999999998</v>
       </c>
       <c r="E204">
-        <v>7.068</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>7.0679999999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>44018</v>
       </c>
       <c r="B205">
-        <v>7.0633</v>
+        <v>7.0632999999999999</v>
       </c>
       <c r="C205">
         <v>7.0644</v>
       </c>
       <c r="D205">
-        <v>7.015</v>
+        <v>7.0149999999999997</v>
       </c>
       <c r="E205">
-        <v>7.033</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>7.0330000000000004</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>44019</v>
       </c>
       <c r="B206">
-        <v>7.0155</v>
+        <v>7.0155000000000003</v>
       </c>
       <c r="C206">
-        <v>7.0274</v>
+        <v>7.0274000000000001</v>
       </c>
       <c r="D206">
-        <v>7.0002</v>
+        <v>7.0002000000000004</v>
       </c>
       <c r="E206">
-        <v>7.0241</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>7.0240999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>44020</v>
       </c>
       <c r="B207">
-        <v>7.022</v>
+        <v>7.0220000000000002</v>
       </c>
       <c r="C207">
-        <v>7.025</v>
+        <v>7.0250000000000004</v>
       </c>
       <c r="D207">
-        <v>6.9999</v>
+        <v>6.9999000000000002</v>
       </c>
       <c r="E207">
-        <v>7.0176</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>7.0175999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>44021</v>
       </c>
       <c r="B208">
-        <v>6.9954</v>
+        <v>6.9954000000000001</v>
       </c>
       <c r="C208">
-        <v>7.0045</v>
+        <v>7.0045000000000002</v>
       </c>
       <c r="D208">
-        <v>6.982</v>
+        <v>6.9820000000000002</v>
       </c>
       <c r="E208">
-        <v>6.9862</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>6.9862000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>44022</v>
       </c>
       <c r="B209">
-        <v>7.0007</v>
+        <v>7.0007000000000001</v>
       </c>
       <c r="C209">
-        <v>7.0129</v>
+        <v>7.0129000000000001</v>
       </c>
       <c r="D209">
-        <v>6.9969</v>
+        <v>6.9969000000000001</v>
       </c>
       <c r="E209">
-        <v>7.0071</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>7.0071000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>44025</v>
       </c>
       <c r="B210">
-        <v>7.002</v>
+        <v>7.0019999999999998</v>
       </c>
       <c r="C210">
-        <v>7.0055</v>
+        <v>7.0054999999999996</v>
       </c>
       <c r="D210">
-        <v>6.995</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="E210">
-        <v>7.0031</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>7.0030999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>44026</v>
       </c>
       <c r="B211">
-        <v>7.0125</v>
+        <v>7.0125000000000002</v>
       </c>
       <c r="C211">
-        <v>7.0199</v>
+        <v>7.0198999999999998</v>
       </c>
       <c r="D211">
-        <v>7.0075</v>
+        <v>7.0075000000000003</v>
       </c>
       <c r="E211">
-        <v>7.0188</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>7.0187999999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>44027</v>
       </c>
       <c r="B212">
-        <v>6.993</v>
+        <v>6.9930000000000003</v>
       </c>
       <c r="C212">
-        <v>7.0047</v>
+        <v>7.0046999999999997</v>
       </c>
       <c r="D212">
-        <v>6.985</v>
+        <v>6.9850000000000003</v>
       </c>
       <c r="E212">
-        <v>6.9886</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>6.9885999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>44028</v>
       </c>
       <c r="B213">
-        <v>6.9857</v>
+        <v>6.9856999999999996</v>
       </c>
       <c r="C213">
-        <v>7.0022</v>
+        <v>7.0022000000000002</v>
       </c>
       <c r="D213">
-        <v>6.983</v>
+        <v>6.9829999999999997</v>
       </c>
       <c r="E213">
-        <v>6.9982</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>6.9981999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>44029</v>
       </c>
       <c r="B214">
-        <v>6.9982</v>
+        <v>6.9981999999999998</v>
       </c>
       <c r="C214">
-        <v>7.0046</v>
+        <v>7.0045999999999999</v>
       </c>
       <c r="D214">
-        <v>6.9915</v>
+        <v>6.9915000000000003</v>
       </c>
       <c r="E214">
-        <v>7.0002</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>7.0002000000000004</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>44032</v>
       </c>
       <c r="B215">
-        <v>6.9933</v>
+        <v>6.9932999999999996</v>
       </c>
       <c r="C215">
-        <v>7.0013</v>
+        <v>7.0012999999999996</v>
       </c>
       <c r="D215">
-        <v>6.983</v>
+        <v>6.9829999999999997</v>
       </c>
       <c r="E215">
-        <v>6.9912</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>6.9912000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>44033</v>
       </c>
       <c r="B216">
-        <v>6.9849</v>
+        <v>6.9848999999999997</v>
       </c>
       <c r="C216">
-        <v>6.9957</v>
+        <v>6.9957000000000003</v>
       </c>
       <c r="D216">
-        <v>6.9804</v>
+        <v>6.9804000000000004</v>
       </c>
       <c r="E216">
-        <v>6.9936</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>6.9935999999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>44034</v>
       </c>
       <c r="B217">
-        <v>6.974</v>
+        <v>6.9740000000000002</v>
       </c>
       <c r="C217">
-        <v>7.0169</v>
+        <v>7.0168999999999997</v>
       </c>
       <c r="D217">
-        <v>6.9649</v>
+        <v>6.9649000000000001</v>
       </c>
       <c r="E217">
-        <v>7.0059</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>7.0058999999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>44035</v>
       </c>
       <c r="B218">
-        <v>7.0088</v>
+        <v>7.0087999999999999</v>
       </c>
       <c r="C218">
-        <v>7.0148</v>
+        <v>7.0148000000000001</v>
       </c>
       <c r="D218">
-        <v>6.991</v>
+        <v>6.9909999999999997</v>
       </c>
       <c r="E218">
-        <v>6.9961</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>6.9961000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>44036</v>
       </c>
       <c r="B219">
-        <v>7.0058</v>
+        <v>7.0057999999999998</v>
       </c>
       <c r="C219">
-        <v>7.0238</v>
+        <v>7.0237999999999996</v>
       </c>
       <c r="D219">
-        <v>7.0018</v>
+        <v>7.0018000000000002</v>
       </c>
       <c r="E219">
-        <v>7.0162</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>7.0162000000000004</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>44039</v>
       </c>
       <c r="B220">
-        <v>7.0013</v>
+        <v>7.0012999999999996</v>
       </c>
       <c r="C220">
         <v>7.0057</v>
       </c>
       <c r="D220">
-        <v>6.995</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="E220">
-        <v>7.001</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>7.0010000000000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>44040</v>
       </c>
       <c r="B221">
-        <v>6.9881</v>
+        <v>6.9881000000000002</v>
       </c>
       <c r="C221">
         <v>7.0103</v>
       </c>
       <c r="D221">
-        <v>6.987</v>
+        <v>6.9870000000000001</v>
       </c>
       <c r="E221">
-        <v>7.0072</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>7.0072000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>44041</v>
       </c>
       <c r="B222">
-        <v>7.003</v>
+        <v>7.0030000000000001</v>
       </c>
       <c r="C222">
-        <v>7.0059</v>
+        <v>7.0058999999999996</v>
       </c>
       <c r="D222">
-        <v>6.9951</v>
+        <v>6.9950999999999999</v>
       </c>
       <c r="E222">
-        <v>6.9997</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>6.9996999999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>44042</v>
       </c>
       <c r="B223">
-        <v>6.9952</v>
+        <v>6.9951999999999996</v>
       </c>
       <c r="C223">
-        <v>7.0098</v>
+        <v>7.0098000000000003</v>
       </c>
       <c r="D223">
         <v>6.992</v>
       </c>
       <c r="E223">
-        <v>7.0064</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>7.0064000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>44043</v>
       </c>
       <c r="B224">
-        <v>6.993</v>
+        <v>6.9930000000000003</v>
       </c>
       <c r="C224">
-        <v>6.995</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="D224">
-        <v>6.9713</v>
+        <v>6.9713000000000003</v>
       </c>
       <c r="E224">
         <v>6.9794</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>44046</v>
       </c>
       <c r="B225">
-        <v>6.9791</v>
+        <v>6.9790999999999999</v>
       </c>
       <c r="C225">
-        <v>6.9864</v>
+        <v>6.9863999999999997</v>
       </c>
       <c r="D225">
         <v>6.9714</v>
       </c>
       <c r="E225">
-        <v>6.9773</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>6.9772999999999996</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>44047</v>
       </c>
       <c r="B226">
-        <v>6.9841</v>
+        <v>6.9840999999999998</v>
       </c>
       <c r="C226">
-        <v>6.9875</v>
+        <v>6.9874999999999998</v>
       </c>
       <c r="D226">
         <v>6.97</v>
       </c>
       <c r="E226">
-        <v>6.982</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>6.9820000000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>44048</v>
       </c>
       <c r="B227">
-        <v>6.966</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="C227">
         <v>6.968</v>
       </c>
       <c r="D227">
-        <v>6.935</v>
+        <v>6.9349999999999996</v>
       </c>
       <c r="E227">
-        <v>6.953</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>6.9530000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>44049</v>
       </c>
       <c r="B228">
-        <v>6.935</v>
+        <v>6.9349999999999996</v>
       </c>
       <c r="C228">
-        <v>6.9546</v>
+        <v>6.9546000000000001</v>
       </c>
       <c r="D228">
-        <v>6.935</v>
+        <v>6.9349999999999996</v>
       </c>
       <c r="E228">
-        <v>6.9441</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>6.9440999999999997</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>44050</v>
       </c>
@@ -4906,84 +4338,84 @@
         <v>6.9577</v>
       </c>
       <c r="C229">
-        <v>6.974</v>
+        <v>6.9740000000000002</v>
       </c>
       <c r="D229">
-        <v>6.9521</v>
+        <v>6.9520999999999997</v>
       </c>
       <c r="E229">
-        <v>6.9598</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>6.9598000000000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>44053</v>
       </c>
       <c r="B230">
-        <v>6.9647</v>
+        <v>6.9646999999999997</v>
       </c>
       <c r="C230">
-        <v>6.9728</v>
+        <v>6.9728000000000003</v>
       </c>
       <c r="D230">
         <v>6.9573</v>
       </c>
       <c r="E230">
-        <v>6.9701</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>6.9701000000000004</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>44054</v>
       </c>
       <c r="B231">
-        <v>6.9565</v>
+        <v>6.9565000000000001</v>
       </c>
       <c r="C231">
-        <v>6.9594</v>
+        <v>6.9593999999999996</v>
       </c>
       <c r="D231">
-        <v>6.942</v>
+        <v>6.9420000000000002</v>
       </c>
       <c r="E231">
-        <v>6.9519</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>6.9519000000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>44055</v>
       </c>
       <c r="B232">
-        <v>6.9524</v>
+        <v>6.9523999999999999</v>
       </c>
       <c r="C232">
-        <v>6.9576</v>
+        <v>6.9576000000000002</v>
       </c>
       <c r="D232">
-        <v>6.9383</v>
+        <v>6.9382999999999999</v>
       </c>
       <c r="E232">
-        <v>6.9458</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>6.9458000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>44056</v>
       </c>
       <c r="B233">
-        <v>6.9301</v>
+        <v>6.9301000000000004</v>
       </c>
       <c r="C233">
         <v>6.9478</v>
       </c>
       <c r="D233">
-        <v>6.9301</v>
+        <v>6.9301000000000004</v>
       </c>
       <c r="E233">
-        <v>6.9445</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>6.9444999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>44057</v>
       </c>
@@ -4991,24 +4423,24 @@
         <v>6.95</v>
       </c>
       <c r="C234">
-        <v>6.9546</v>
+        <v>6.9546000000000001</v>
       </c>
       <c r="D234">
-        <v>6.9406</v>
+        <v>6.9405999999999999</v>
       </c>
       <c r="E234">
-        <v>6.9498</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>6.9497999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>44060</v>
       </c>
       <c r="B235">
-        <v>6.9405</v>
+        <v>6.9405000000000001</v>
       </c>
       <c r="C235">
-        <v>6.9479</v>
+        <v>6.9478999999999997</v>
       </c>
       <c r="D235">
         <v>6.9318</v>
@@ -5017,7 +4449,7 @@
         <v>6.9417</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>44061</v>
       </c>
@@ -5025,33 +4457,33 @@
         <v>6.93</v>
       </c>
       <c r="C236">
-        <v>6.935</v>
+        <v>6.9349999999999996</v>
       </c>
       <c r="D236">
-        <v>6.9111</v>
+        <v>6.9111000000000002</v>
       </c>
       <c r="E236">
         <v>6.9257</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>44062</v>
       </c>
       <c r="B237">
-        <v>6.917</v>
+        <v>6.9169999999999998</v>
       </c>
       <c r="C237">
         <v>6.9234</v>
       </c>
       <c r="D237">
-        <v>6.9081</v>
+        <v>6.9081000000000001</v>
       </c>
       <c r="E237">
-        <v>6.9103</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>6.9103000000000003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>44063</v>
       </c>
@@ -5059,33 +4491,33 @@
         <v>6.9291</v>
       </c>
       <c r="C238">
-        <v>6.9292</v>
+        <v>6.9291999999999998</v>
       </c>
       <c r="D238">
-        <v>6.9132</v>
+        <v>6.9131999999999998</v>
       </c>
       <c r="E238">
-        <v>6.9216</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>6.9215999999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>44064</v>
       </c>
       <c r="B239">
-        <v>6.9096</v>
+        <v>6.9096000000000002</v>
       </c>
       <c r="C239">
-        <v>6.9151</v>
+        <v>6.9150999999999998</v>
       </c>
       <c r="D239">
-        <v>6.896</v>
+        <v>6.8959999999999999</v>
       </c>
       <c r="E239">
-        <v>6.9136</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>6.9135999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>44067</v>
       </c>
@@ -5093,75 +4525,75 @@
         <v>6.91</v>
       </c>
       <c r="C240">
-        <v>6.9212</v>
+        <v>6.9211999999999998</v>
       </c>
       <c r="D240">
         <v>6.91</v>
       </c>
       <c r="E240">
-        <v>6.9126</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>6.9126000000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>44068</v>
       </c>
       <c r="B241">
-        <v>6.9115</v>
+        <v>6.9115000000000002</v>
       </c>
       <c r="C241">
-        <v>6.9155</v>
+        <v>6.9154999999999998</v>
       </c>
       <c r="D241">
-        <v>6.9072</v>
+        <v>6.9071999999999996</v>
       </c>
       <c r="E241">
-        <v>6.9117</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>6.9116999999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>44069</v>
       </c>
       <c r="B242">
-        <v>6.9037</v>
+        <v>6.9036999999999997</v>
       </c>
       <c r="C242">
-        <v>6.9069</v>
+        <v>6.9069000000000003</v>
       </c>
       <c r="D242">
-        <v>6.8855</v>
+        <v>6.8855000000000004</v>
       </c>
       <c r="E242">
-        <v>6.8919</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>6.8918999999999997</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>44070</v>
       </c>
       <c r="B243">
-        <v>6.8888</v>
+        <v>6.8887999999999998</v>
       </c>
       <c r="C243">
-        <v>6.8989</v>
+        <v>6.8989000000000003</v>
       </c>
       <c r="D243">
-        <v>6.8744</v>
+        <v>6.8743999999999996</v>
       </c>
       <c r="E243">
-        <v>6.8946</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>6.8945999999999996</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>44071</v>
       </c>
       <c r="B244">
-        <v>6.8855</v>
+        <v>6.8855000000000004</v>
       </c>
       <c r="C244">
-        <v>6.8865</v>
+        <v>6.8864999999999998</v>
       </c>
       <c r="D244">
         <v>6.8605</v>
@@ -5170,29 +4602,29 @@
         <v>6.8651</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>44074</v>
       </c>
       <c r="B245">
-        <v>6.8633</v>
+        <v>6.8632999999999997</v>
       </c>
       <c r="C245">
-        <v>6.8639</v>
+        <v>6.8639000000000001</v>
       </c>
       <c r="D245">
         <v>6.843</v>
       </c>
       <c r="E245">
-        <v>6.8535</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>6.8535000000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>44075</v>
       </c>
       <c r="B246">
-        <v>6.8458</v>
+        <v>6.8457999999999997</v>
       </c>
       <c r="C246">
         <v>6.8468</v>
@@ -5201,61 +4633,61 @@
         <v>6.81</v>
       </c>
       <c r="E246">
-        <v>6.8239</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>6.8239000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>44076</v>
       </c>
       <c r="B247">
-        <v>6.832</v>
+        <v>6.8319999999999999</v>
       </c>
       <c r="C247">
         <v>6.8388</v>
       </c>
       <c r="D247">
-        <v>6.822</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="E247">
-        <v>6.8261</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>6.8261000000000003</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>44077</v>
       </c>
       <c r="B248">
-        <v>6.833</v>
+        <v>6.8330000000000002</v>
       </c>
       <c r="C248">
-        <v>6.847</v>
+        <v>6.8470000000000004</v>
       </c>
       <c r="D248">
         <v>6.8243</v>
       </c>
       <c r="E248">
-        <v>6.8355</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>6.8354999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>44078</v>
       </c>
       <c r="B249">
-        <v>6.8402</v>
+        <v>6.8402000000000003</v>
       </c>
       <c r="C249">
-        <v>6.847</v>
+        <v>6.8470000000000004</v>
       </c>
       <c r="D249">
-        <v>6.8353</v>
+        <v>6.8353000000000002</v>
       </c>
       <c r="E249">
-        <v>6.8393</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>6.8392999999999997</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>44081</v>
       </c>
@@ -5263,52 +4695,52 @@
         <v>6.83</v>
       </c>
       <c r="C250">
-        <v>6.8344</v>
+        <v>6.8343999999999996</v>
       </c>
       <c r="D250">
-        <v>6.8259</v>
+        <v>6.8258999999999999</v>
       </c>
       <c r="E250">
-        <v>6.8302</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>6.8301999999999996</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>44082</v>
       </c>
       <c r="B251">
-        <v>6.8335</v>
+        <v>6.8334999999999999</v>
       </c>
       <c r="C251">
-        <v>6.8518</v>
+        <v>6.8517999999999999</v>
       </c>
       <c r="D251">
-        <v>6.8277</v>
+        <v>6.8277000000000001</v>
       </c>
       <c r="E251">
-        <v>6.8316</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>6.8315999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>44083</v>
       </c>
       <c r="B252">
-        <v>6.8495</v>
+        <v>6.8494999999999999</v>
       </c>
       <c r="C252">
-        <v>6.8565</v>
+        <v>6.8564999999999996</v>
       </c>
       <c r="D252">
-        <v>6.8318</v>
+        <v>6.8318000000000003</v>
       </c>
       <c r="E252">
-        <v>6.846</v>
+        <v>6.8460000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>